--- a/tp2-A18/exemple/resultats/recuit_2.xlsx
+++ b/tp2-A18/exemple/resultats/recuit_2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\inf4705_labs\tp2-A18\exemple\resultats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46903CA4-0BFE-4DA5-A908-1BFBF7673A23}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0379686-3354-4133-8173-14D29931A0FB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16428" windowHeight="8664"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16428" windowHeight="8664" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="recuit_2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -106,7 +114,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -243,7 +251,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,6 +431,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -584,8 +598,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -940,27 +955,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B297"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E298"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1.99484825134277E-3</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D2" s="1">
+        <f>AVERAGE(A2:A11)</f>
+        <v>1.4964342117309542E-3</v>
+      </c>
+      <c r="E2" s="1">
+        <f>AVERAGE(B2:B11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>9.9754333496093707E-4</v>
       </c>
@@ -968,7 +993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>9.9968910217285091E-4</v>
       </c>
@@ -976,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>9.9730491638183594E-4</v>
       </c>
@@ -984,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9.9825859069824197E-4</v>
       </c>
@@ -992,7 +1017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1.9938945770263598E-3</v>
       </c>
@@ -1000,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1.9953250885009701E-3</v>
       </c>
@@ -1008,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9.9754333496093707E-4</v>
       </c>
@@ -1016,7 +1041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1.9953250885009701E-3</v>
       </c>
@@ -1024,7 +1049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1.9946098327636701E-3</v>
       </c>
@@ -1032,20 +1057,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>9.9778175354003906E-4</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <f t="shared" ref="D13:E13" si="0">AVERAGE(A13:A22)</f>
+        <v>1.2971878051757785E-3</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.9958019256591701E-3</v>
       </c>
@@ -1053,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.99484825134277E-3</v>
       </c>
@@ -1061,7 +1094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>9.9778175354003906E-4</v>
       </c>
@@ -1069,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>9.9682807922363195E-4</v>
       </c>
@@ -1077,7 +1110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>9.984970092773431E-4</v>
       </c>
@@ -1085,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>9.9825859069824197E-4</v>
       </c>
@@ -1093,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.00064277648925E-3</v>
       </c>
@@ -1101,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1.9938945770263598E-3</v>
       </c>
@@ -1109,7 +1142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>9.9754333496093707E-4</v>
       </c>
@@ -1117,20 +1150,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1.0232925415039E-3</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <f t="shared" ref="D24:E24" si="1">AVERAGE(A24:A33)</f>
+        <v>1.4981985092163046E-3</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>9.9754333496093707E-4</v>
       </c>
@@ -1138,7 +1179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>9.9682807922363195E-4</v>
       </c>
@@ -1146,7 +1187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1.9955635070800699E-3</v>
       </c>
@@ -1154,7 +1195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1.99651718139648E-3</v>
       </c>
@@ -1162,7 +1203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>9.9706649780273394E-4</v>
       </c>
@@ -1170,7 +1211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>9.95635986328125E-4</v>
       </c>
@@ -1178,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1.9927024841308498E-3</v>
       </c>
@@ -1186,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1.9919872283935499E-3</v>
       </c>
@@ -1194,7 +1235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1.99484825134277E-3</v>
       </c>
@@ -1202,20 +1243,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1.01351737976074E-3</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <f t="shared" ref="D35:E35" si="2">AVERAGE(A35:A44)</f>
+        <v>1.4005184173583964E-3</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>9.946823120117181E-4</v>
       </c>
@@ -1223,7 +1272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1.9946098327636701E-3</v>
       </c>
@@ -1231,7 +1280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1.02758407592773E-3</v>
       </c>
@@ -1239,7 +1288,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1.9946098327636701E-3</v>
       </c>
@@ -1247,7 +1296,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>9.9778175354003906E-4</v>
       </c>
@@ -1255,7 +1304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>9.9730491638183594E-4</v>
       </c>
@@ -1263,7 +1312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2.9904842376708902E-3</v>
       </c>
@@ -1271,7 +1320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>9.9778175354003906E-4</v>
       </c>
@@ -1279,7 +1328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>9.9682807922363195E-4</v>
       </c>
@@ -1287,20 +1336,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <f t="shared" ref="D46:E46" si="3">AVERAGE(A46:A55)</f>
+        <v>9.9825859069824202E-5</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0</v>
       </c>
@@ -1308,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>9.9825859069824197E-4</v>
       </c>
@@ -1316,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0</v>
       </c>
@@ -1324,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>0</v>
       </c>
@@ -1332,7 +1389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>0</v>
       </c>
@@ -1340,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0</v>
       </c>
@@ -1348,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0</v>
       </c>
@@ -1356,7 +1413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0</v>
       </c>
@@ -1364,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0</v>
       </c>
@@ -1372,20 +1429,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D57">
+        <f t="shared" ref="D57:E57" si="4">AVERAGE(A57:A66)</f>
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0</v>
       </c>
@@ -1393,7 +1458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0</v>
       </c>
@@ -1401,7 +1466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>0</v>
       </c>
@@ -1409,7 +1474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>0</v>
       </c>
@@ -1417,7 +1482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0</v>
       </c>
@@ -1425,7 +1490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0</v>
       </c>
@@ -1433,7 +1498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0</v>
       </c>
@@ -1441,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0</v>
       </c>
@@ -1449,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0</v>
       </c>
@@ -1457,20 +1522,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>9.9730491638183594E-4</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D68">
+        <f t="shared" ref="D68:E68" si="5">AVERAGE(A68:A77)</f>
+        <v>2.9866695404052725E-4</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="5"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>9.9706649780273394E-4</v>
       </c>
@@ -1478,7 +1551,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>9.9229812622070291E-4</v>
       </c>
@@ -1486,7 +1559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>0</v>
       </c>
@@ -1494,7 +1567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0</v>
       </c>
@@ -1502,7 +1575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0</v>
       </c>
@@ -1510,7 +1583,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0</v>
       </c>
@@ -1518,7 +1591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0</v>
       </c>
@@ -1526,7 +1599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>0</v>
       </c>
@@ -1534,7 +1607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0</v>
       </c>
@@ -1542,20 +1615,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>0</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D79">
+        <f t="shared" ref="D79:E79" si="6">AVERAGE(A79:A88)</f>
+        <v>1.9962787628173819E-4</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="6"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>0</v>
       </c>
@@ -1563,7 +1644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>0</v>
       </c>
@@ -1571,7 +1652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>0</v>
       </c>
@@ -1579,7 +1660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>9.9730491638183594E-4</v>
       </c>
@@ -1587,7 +1668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>9.9897384643554601E-4</v>
       </c>
@@ -1595,7 +1676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>0</v>
       </c>
@@ -1603,7 +1684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>0</v>
       </c>
@@ -1611,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>0</v>
       </c>
@@ -1619,7 +1700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>0</v>
       </c>
@@ -1627,20 +1708,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>0</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D90">
+        <f t="shared" ref="D90:E90" si="7">AVERAGE(A90:A99)</f>
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>0</v>
       </c>
@@ -1648,7 +1737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>0</v>
       </c>
@@ -1656,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>0</v>
       </c>
@@ -1664,7 +1753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>0</v>
       </c>
@@ -1672,7 +1761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>0</v>
       </c>
@@ -1680,7 +1769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>0</v>
       </c>
@@ -1688,7 +1777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>0</v>
       </c>
@@ -1696,7 +1785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>0</v>
       </c>
@@ -1704,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>0</v>
       </c>
@@ -1712,20 +1801,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>0</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D101">
+        <f t="shared" ref="D101:E101" si="8">AVERAGE(A101:A110)</f>
+        <v>9.9754333496093704E-5</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>0</v>
       </c>
@@ -1733,7 +1830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>0</v>
       </c>
@@ -1741,7 +1838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>0</v>
       </c>
@@ -1749,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>0</v>
       </c>
@@ -1757,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>0</v>
       </c>
@@ -1765,7 +1862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>0</v>
       </c>
@@ -1773,7 +1870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>9.9754333496093707E-4</v>
       </c>
@@ -1781,7 +1878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>0</v>
       </c>
@@ -1789,7 +1886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>0</v>
       </c>
@@ -1797,20 +1894,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>0</v>
       </c>
       <c r="B112">
         <v>95</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D112">
+        <f t="shared" ref="D112:E112" si="9">AVERAGE(A112:A121)</f>
+        <v>9.9730491638183596E-5</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="9"/>
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>0</v>
       </c>
@@ -1818,7 +1923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>0</v>
       </c>
@@ -1826,7 +1931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>0</v>
       </c>
@@ -1834,7 +1939,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>0</v>
       </c>
@@ -1842,7 +1947,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>0</v>
       </c>
@@ -1850,7 +1955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>9.9730491638183594E-4</v>
       </c>
@@ -1858,7 +1963,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>0</v>
       </c>
@@ -1866,7 +1971,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>0</v>
       </c>
@@ -1874,7 +1979,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>0</v>
       </c>
@@ -1882,20 +1987,28 @@
         <v>67</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1.9950866699218698E-3</v>
       </c>
       <c r="B123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D123">
+        <f t="shared" ref="D123:E123" si="10">AVERAGE(A123:A132)</f>
+        <v>2.4965286254882771E-3</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1.9941329956054601E-3</v>
       </c>
@@ -1903,7 +2016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>9.9658966064453103E-4</v>
       </c>
@@ -1911,7 +2024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1.9953250885009701E-3</v>
       </c>
@@ -1919,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1.99484825134277E-3</v>
       </c>
@@ -1927,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>3.0238628387451098E-3</v>
       </c>
@@ -1935,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2.9919147491455E-3</v>
       </c>
@@ -1943,7 +2056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1.9946098327636701E-3</v>
       </c>
@@ -1951,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>3.9887428283691398E-3</v>
       </c>
@@ -1959,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>3.99017333984375E-3</v>
       </c>
@@ -1967,20 +2080,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1.99365615844726E-3</v>
       </c>
       <c r="B134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D134">
+        <f t="shared" ref="D134:E134" si="11">AVERAGE(A134:A143)</f>
+        <v>3.4938812255859335E-3</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>3.9887428283691398E-3</v>
       </c>
@@ -1988,7 +2109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1.9967555999755799E-3</v>
       </c>
@@ -1996,7 +2117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>3.9899349212646398E-3</v>
       </c>
@@ -2004,7 +2125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2.9919147491455E-3</v>
       </c>
@@ -2012,7 +2133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2.9914379119872999E-3</v>
       </c>
@@ -2020,7 +2141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>3.9892196655273403E-3</v>
       </c>
@@ -2028,7 +2149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>4.98723983764648E-3</v>
       </c>
@@ -2036,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>4.02069091796875E-3</v>
       </c>
@@ -2044,7 +2165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>3.9892196655273403E-3</v>
       </c>
@@ -2052,20 +2173,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1.99484825134277E-3</v>
       </c>
       <c r="B145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D145">
+        <f t="shared" ref="D145:E145" si="12">AVERAGE(A145:A154)</f>
+        <v>3.2909870147705021E-3</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1.9950866699218698E-3</v>
       </c>
@@ -2073,7 +2202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>2.9921531677245998E-3</v>
       </c>
@@ -2081,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>2.9916763305664002E-3</v>
       </c>
@@ -2089,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>2.9916763305664002E-3</v>
       </c>
@@ -2097,7 +2226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>2.99072265625E-3</v>
       </c>
@@ -2105,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2.9916763305664002E-3</v>
       </c>
@@ -2113,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>3.9892196655273403E-3</v>
       </c>
@@ -2121,7 +2250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>3.9899349212646398E-3</v>
       </c>
@@ -2129,7 +2258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>5.9828758239745998E-3</v>
       </c>
@@ -2137,20 +2266,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>0</v>
       </c>
       <c r="B156">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D156">
+        <f t="shared" ref="D156:E156" si="13">AVERAGE(A156:A165)</f>
+        <v>1.993894577026366E-4</v>
+      </c>
+      <c r="E156">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>0</v>
       </c>
@@ -2158,7 +2295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>0</v>
       </c>
@@ -2166,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>0</v>
       </c>
@@ -2174,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>9.9802017211913997E-4</v>
       </c>
@@ -2182,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>0</v>
       </c>
@@ -2190,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>0</v>
       </c>
@@ -2198,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>9.9587440490722591E-4</v>
       </c>
@@ -2206,7 +2343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>0</v>
       </c>
@@ -2214,7 +2351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>0</v>
       </c>
@@ -2222,20 +2359,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>9.9515914916992101E-4</v>
       </c>
       <c r="B167">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D167">
+        <f t="shared" ref="D167:E167" si="14">AVERAGE(A167:A176)</f>
+        <v>5.985260009765622E-4</v>
+      </c>
+      <c r="E167">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>0</v>
       </c>
@@ -2243,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>9.9754333496093707E-4</v>
       </c>
@@ -2251,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>0</v>
       </c>
@@ -2259,7 +2404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>9.9754333496093707E-4</v>
       </c>
@@ -2267,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>0</v>
       </c>
@@ -2275,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>9.9897384643554601E-4</v>
       </c>
@@ -2283,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>9.9682807922363195E-4</v>
       </c>
@@ -2291,7 +2436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>0</v>
       </c>
@@ -2299,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>9.99212265014648E-4</v>
       </c>
@@ -2307,20 +2452,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>0</v>
       </c>
       <c r="B178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D178">
+        <f t="shared" ref="D178:E178" si="15">AVERAGE(A178:A187)</f>
+        <v>3.025293350219723E-4</v>
+      </c>
+      <c r="E178">
+        <f t="shared" si="15"/>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>9.9754333496093707E-4</v>
       </c>
@@ -2328,7 +2481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1.0304450988769501E-3</v>
       </c>
@@ -2336,7 +2489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>0</v>
       </c>
@@ -2344,7 +2497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>0</v>
       </c>
@@ -2352,7 +2505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>0</v>
       </c>
@@ -2360,7 +2513,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>0</v>
       </c>
@@ -2368,7 +2521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>0</v>
       </c>
@@ -2376,7 +2529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>0</v>
       </c>
@@ -2384,7 +2537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>9.9730491638183594E-4</v>
       </c>
@@ -2392,20 +2545,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>0</v>
       </c>
       <c r="B189">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D189">
+        <f t="shared" ref="D189:E189" si="16">AVERAGE(A189:A198)</f>
+        <v>9.9563598632812505E-5</v>
+      </c>
+      <c r="E189">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>0</v>
       </c>
@@ -2413,7 +2574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>0</v>
       </c>
@@ -2421,7 +2582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>0</v>
       </c>
@@ -2429,7 +2590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>9.95635986328125E-4</v>
       </c>
@@ -2437,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>0</v>
       </c>
@@ -2445,7 +2606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>0</v>
       </c>
@@ -2453,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>0</v>
       </c>
@@ -2461,7 +2622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>0</v>
       </c>
@@ -2469,7 +2630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>0</v>
       </c>
@@ -2477,20 +2638,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>0</v>
       </c>
       <c r="B200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D200">
+        <f t="shared" ref="D200:E200" si="17">AVERAGE(A200:A209)</f>
+        <v>9.9492073059082007E-5</v>
+      </c>
+      <c r="E200">
+        <f t="shared" si="17"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>0</v>
       </c>
@@ -2498,7 +2667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>0</v>
       </c>
@@ -2506,7 +2675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>0</v>
       </c>
@@ -2514,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>0</v>
       </c>
@@ -2522,7 +2691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>0</v>
       </c>
@@ -2530,7 +2699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>0</v>
       </c>
@@ -2538,7 +2707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>0</v>
       </c>
@@ -2546,7 +2715,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>9.949207305908201E-4</v>
       </c>
@@ -2554,7 +2723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>0</v>
       </c>
@@ -2562,20 +2731,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>0</v>
       </c>
       <c r="B211">
         <v>31</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D211">
+        <f t="shared" ref="D211:E211" si="18">AVERAGE(A211:A220)</f>
+        <v>0</v>
+      </c>
+      <c r="E211">
+        <f t="shared" si="18"/>
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>0</v>
       </c>
@@ -2583,7 +2760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>0</v>
       </c>
@@ -2591,7 +2768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>0</v>
       </c>
@@ -2599,7 +2776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>0</v>
       </c>
@@ -2607,7 +2784,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>0</v>
       </c>
@@ -2615,7 +2792,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>0</v>
       </c>
@@ -2623,7 +2800,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>0</v>
       </c>
@@ -2631,7 +2808,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>0</v>
       </c>
@@ -2639,7 +2816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>0</v>
       </c>
@@ -2647,20 +2824,28 @@
         <v>35</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>9.9515914916992101E-4</v>
       </c>
       <c r="B222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D222">
+        <f t="shared" ref="D222:E222" si="19">AVERAGE(A222:A231)</f>
+        <v>7.9770088195800764E-4</v>
+      </c>
+      <c r="E222">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>9.9706649780273394E-4</v>
       </c>
@@ -2668,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>9.9754333496093707E-4</v>
       </c>
@@ -2676,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>9.9778175354003906E-4</v>
       </c>
@@ -2684,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>0</v>
       </c>
@@ -2692,7 +2877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>9.9611282348632791E-4</v>
       </c>
@@ -2700,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>9.9754333496093707E-4</v>
       </c>
@@ -2708,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>0</v>
       </c>
@@ -2716,7 +2901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>9.9706649780273394E-4</v>
       </c>
@@ -2724,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>9.987354278564451E-4</v>
       </c>
@@ -2732,20 +2917,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>8.2111358642578103E-4</v>
       </c>
       <c r="B233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D233">
+        <f t="shared" ref="D233:E233" si="20">AVERAGE(A233:A242)</f>
+        <v>3.8096904754638658E-4</v>
+      </c>
+      <c r="E233">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>9.9587440490722591E-4</v>
       </c>
@@ -2753,7 +2946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>0</v>
       </c>
@@ -2761,7 +2954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>9.9730491638183594E-4</v>
       </c>
@@ -2769,7 +2962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>0</v>
       </c>
@@ -2777,7 +2970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>0</v>
       </c>
@@ -2785,7 +2978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>0</v>
       </c>
@@ -2793,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>9.95397567749023E-4</v>
       </c>
@@ -2801,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>0</v>
       </c>
@@ -2809,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>0</v>
       </c>
@@ -2817,20 +3010,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>9.9706649780273394E-4</v>
       </c>
       <c r="B244">
         <v>1</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D244">
+        <f t="shared" ref="D244:E244" si="21">AVERAGE(A244:A253)</f>
+        <v>8.9755058288574206E-4</v>
+      </c>
+      <c r="E244">
+        <f t="shared" si="21"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>0</v>
       </c>
@@ -2838,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>9.9706649780273394E-4</v>
       </c>
@@ -2846,7 +3047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>9.9682807922363195E-4</v>
       </c>
@@ -2854,7 +3055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>9.9754333496093707E-4</v>
       </c>
@@ -2862,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>9.9706649780273394E-4</v>
       </c>
@@ -2870,7 +3071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>9.9778175354003906E-4</v>
       </c>
@@ -2878,7 +3079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>9.9730491638183594E-4</v>
       </c>
@@ -2886,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>9.9730491638183594E-4</v>
       </c>
@@ -2894,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>9.9754333496093707E-4</v>
       </c>
@@ -2902,20 +3103,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>9.9682807922363195E-4</v>
       </c>
       <c r="B255">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D255">
+        <f t="shared" ref="D255:E255" si="22">AVERAGE(A255:A264)</f>
+        <v>6.954669952392576E-4</v>
+      </c>
+      <c r="E255">
+        <f t="shared" si="22"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>9.6702575683593696E-4</v>
       </c>
@@ -2923,7 +3132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>9.9778175354003906E-4</v>
       </c>
@@ -2931,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>0</v>
       </c>
@@ -2939,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>9.9992752075195291E-4</v>
       </c>
@@ -2947,7 +3156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>9.9635124206542904E-4</v>
       </c>
@@ -2955,7 +3164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>0</v>
       </c>
@@ -2963,7 +3172,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>9.9945068359375E-4</v>
       </c>
@@ -2971,7 +3180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>9.9730491638183594E-4</v>
       </c>
@@ -2979,7 +3188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>0</v>
       </c>
@@ -2987,20 +3196,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>0</v>
       </c>
       <c r="B266">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D266">
+        <f>AVERAGE(A266:A275)</f>
+        <v>9.9706649780273394E-5</v>
+      </c>
+      <c r="E266">
+        <f t="shared" ref="D266:E266" si="23">AVERAGE(B266:B275)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>0</v>
       </c>
@@ -3008,7 +3225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>0</v>
       </c>
@@ -3016,7 +3233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>0</v>
       </c>
@@ -3024,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>9.9706649780273394E-4</v>
       </c>
@@ -3032,7 +3249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>0</v>
       </c>
@@ -3040,7 +3257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>0</v>
       </c>
@@ -3048,7 +3265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>0</v>
       </c>
@@ -3056,7 +3273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>0</v>
       </c>
@@ -3064,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>0</v>
       </c>
@@ -3072,28 +3289,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276">
-        <v>0</v>
-      </c>
-      <c r="B276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>0</v>
       </c>
       <c r="B278">
         <v>27</v>
       </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D278">
+        <f t="shared" ref="D278:E278" si="24">AVERAGE(A278:A287)</f>
+        <v>0</v>
+      </c>
+      <c r="E278">
+        <f t="shared" si="24"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>0</v>
       </c>
@@ -3101,7 +3318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>0</v>
       </c>
@@ -3109,7 +3326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>0</v>
       </c>
@@ -3117,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>0</v>
       </c>
@@ -3125,7 +3342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>0</v>
       </c>
@@ -3133,7 +3350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>0</v>
       </c>
@@ -3141,7 +3358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>0</v>
       </c>
@@ -3149,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>0</v>
       </c>
@@ -3157,7 +3374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>0</v>
       </c>
@@ -3165,20 +3382,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>0</v>
       </c>
       <c r="B289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D289">
+        <f>AVERAGE(A289:A298)</f>
+        <v>1.9958019256591789E-4</v>
+      </c>
+      <c r="E289">
+        <f>AVERAGE(B289:B298)</f>
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>9.9754333496093707E-4</v>
       </c>
@@ -3186,7 +3411,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>0</v>
       </c>
@@ -3194,7 +3419,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>0</v>
       </c>
@@ -3202,7 +3427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>0</v>
       </c>
@@ -3210,7 +3435,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>0</v>
       </c>
@@ -3218,7 +3443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>0</v>
       </c>
@@ -3226,7 +3451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>0</v>
       </c>
@@ -3234,12 +3459,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>9.9825859069824197E-4</v>
       </c>
       <c r="B297">
         <v>8</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>0</v>
+      </c>
+      <c r="B298">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
